--- a/ResourceFiles/Boulder Q4 Newsletter Click Rates.xlsx
+++ b/ResourceFiles/Boulder Q4 Newsletter Click Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/Documents/BUSS/Learn courses/MS-4004 - V3 Dec 2025/Source docs/LP1-Use Microsoft 365 Copilot in everyday use cases/M8-Communications use case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/MS-4004 lab files/Net new files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="36" documentId="8_{B05CFF52-35B5-458B-850B-3B3680B1D369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78D9B4BC-943C-406C-83C7-AAC98B20487E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B5AF351-3B02-43DF-B5CF-72D7B2EA1DF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B5AF351-3B02-43DF-B5CF-72D7B2EA1DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,52 +143,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF63BE7B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8696B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF63BE7B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -781,6 +736,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{87867195-f2b8-4ac2-b0b6-6bb73cb33afc}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>